--- a/Accuracy + Recall.xlsx
+++ b/Accuracy + Recall.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mafalda\Text Mining\textMiningProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D171FB-E9F5-40C6-8239-BBC79A690A29}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBABC57-88DB-4CC2-A576-91EB9154301A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{03008C86-5952-417D-924E-3D1D43477491}"/>
   </bookViews>
@@ -169,7 +169,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,12 +208,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -384,21 +378,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -420,6 +399,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -764,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68130463-B754-40BA-A8FB-CD9A9067ADC7}">
   <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -776,44 +770,44 @@
     <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="42" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="37" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="13" style="38" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="13" style="33" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="42" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="37" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="31" t="s">
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
     </row>
     <row r="2" spans="1:24">
       <c r="A2" s="1"/>
@@ -838,7 +832,7 @@
       <c r="J2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="51" t="s">
+      <c r="K2" s="46" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="7" t="s">
@@ -882,10 +876,10 @@
       </c>
     </row>
     <row r="3" spans="1:24">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="50" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -906,7 +900,7 @@
       <c r="H3" s="15">
         <v>85.521091948409307</v>
       </c>
-      <c r="I3" s="40">
+      <c r="I3" s="35">
         <v>88.577745025792197</v>
       </c>
       <c r="J3" s="9">
@@ -933,7 +927,7 @@
       <c r="S3" s="9">
         <v>87.785058977719501</v>
       </c>
-      <c r="T3" s="40">
+      <c r="T3" s="35">
         <v>88.391401037805693</v>
       </c>
       <c r="U3" s="15">
@@ -944,8 +938,8 @@
       </c>
     </row>
     <row r="4" spans="1:24">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
       <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
@@ -964,7 +958,7 @@
       <c r="H4" s="18">
         <v>27.01298701</v>
       </c>
-      <c r="I4" s="41">
+      <c r="I4" s="36">
         <v>37.578947370000002</v>
       </c>
       <c r="J4" s="10">
@@ -991,7 +985,7 @@
       <c r="S4" s="10">
         <v>29.083333329999999</v>
       </c>
-      <c r="T4" s="41">
+      <c r="T4" s="36">
         <v>28.285714290000001</v>
       </c>
       <c r="U4" s="10">
@@ -1002,8 +996,8 @@
       </c>
     </row>
     <row r="5" spans="1:24">
-      <c r="A5" s="33"/>
-      <c r="B5" s="34"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="6" t="s">
         <v>5</v>
       </c>
@@ -1022,7 +1016,7 @@
       <c r="H5" s="20">
         <v>35.631578949999998</v>
       </c>
-      <c r="I5" s="39">
+      <c r="I5" s="34">
         <v>44.444444439999998</v>
       </c>
       <c r="J5" s="13">
@@ -1034,7 +1028,7 @@
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
       <c r="N5" s="13"/>
-      <c r="O5" s="44">
+      <c r="O5" s="39">
         <v>45.555555560000002</v>
       </c>
       <c r="P5" s="21">
@@ -1049,7 +1043,7 @@
       <c r="S5" s="13">
         <v>41.052631580000003</v>
       </c>
-      <c r="T5" s="39">
+      <c r="T5" s="34">
         <v>46.666666669999998</v>
       </c>
       <c r="U5" s="20">
@@ -1060,8 +1054,8 @@
       </c>
     </row>
     <row r="6" spans="1:24">
-      <c r="A6" s="33"/>
-      <c r="B6" s="35" t="s">
+      <c r="A6" s="48"/>
+      <c r="B6" s="50" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -1082,10 +1076,10 @@
       <c r="H6" s="15">
         <v>98.579524268587306</v>
       </c>
-      <c r="I6" s="40">
+      <c r="I6" s="35">
         <v>98.452468680913697</v>
       </c>
-      <c r="J6" s="40">
+      <c r="J6" s="35">
         <v>99.2211968991557</v>
       </c>
       <c r="K6" s="9">
@@ -1109,10 +1103,10 @@
       <c r="S6" s="9">
         <v>98.492791612057601</v>
       </c>
-      <c r="T6" s="41">
+      <c r="T6" s="36">
         <v>98.561897702001403</v>
       </c>
-      <c r="U6" s="36">
+      <c r="U6" s="31">
         <v>99.215700119470895</v>
       </c>
       <c r="V6" s="16">
@@ -1120,8 +1114,8 @@
       </c>
     </row>
     <row r="7" spans="1:24">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="5" t="s">
         <v>4</v>
       </c>
@@ -1149,9 +1143,9 @@
       <c r="K7" s="23">
         <v>89.102564099999995</v>
       </c>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
       <c r="O7" s="22">
         <v>77.619047620000003</v>
       </c>
@@ -1178,8 +1172,8 @@
       </c>
     </row>
     <row r="8" spans="1:24">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="6" t="s">
         <v>5</v>
       </c>
@@ -1236,10 +1230,10 @@
       </c>
     </row>
     <row r="9" spans="1:24">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -1260,7 +1254,7 @@
       <c r="H9" s="15">
         <v>97.693225010510901</v>
       </c>
-      <c r="I9" s="40">
+      <c r="I9" s="35">
         <v>97.745025792188599</v>
       </c>
       <c r="J9" s="9">
@@ -1287,7 +1281,7 @@
       <c r="S9" s="9">
         <v>97.811271297509805</v>
       </c>
-      <c r="T9" s="40">
+      <c r="T9" s="35">
         <v>97.894736842105203</v>
       </c>
       <c r="U9" s="15">
@@ -1298,8 +1292,8 @@
       </c>
     </row>
     <row r="10" spans="1:24">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
+      <c r="A10" s="48"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="5" t="s">
         <v>4</v>
       </c>
@@ -1345,7 +1339,7 @@
       <c r="S10" s="10">
         <v>9.25</v>
       </c>
-      <c r="T10" s="41">
+      <c r="T10" s="36">
         <v>11.23809524</v>
       </c>
       <c r="U10" s="10">
@@ -1356,8 +1350,8 @@
       </c>
     </row>
     <row r="11" spans="1:24">
-      <c r="A11" s="33"/>
-      <c r="B11" s="34"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="6" t="s">
         <v>5</v>
       </c>
@@ -1376,7 +1370,7 @@
       <c r="H11" s="20">
         <v>16.368421049999998</v>
       </c>
-      <c r="I11" s="39">
+      <c r="I11" s="34">
         <v>14.44444444</v>
       </c>
       <c r="J11" s="13">
@@ -1403,7 +1397,7 @@
       <c r="S11" s="13">
         <v>11.57894737</v>
       </c>
-      <c r="T11" s="39">
+      <c r="T11" s="34">
         <v>14.44444444</v>
       </c>
       <c r="U11" s="20">
@@ -1414,8 +1408,8 @@
       </c>
     </row>
     <row r="12" spans="1:24">
-      <c r="A12" s="33"/>
-      <c r="B12" s="35" t="s">
+      <c r="A12" s="48"/>
+      <c r="B12" s="50" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -1436,7 +1430,7 @@
       <c r="H12" s="15">
         <v>92.245671404728398</v>
       </c>
-      <c r="I12" s="40">
+      <c r="I12" s="35">
         <v>92.144436256448003</v>
       </c>
       <c r="J12" s="9">
@@ -1463,7 +1457,7 @@
       <c r="S12" s="9">
         <v>92.595019659239796</v>
       </c>
-      <c r="T12" s="40">
+      <c r="T12" s="35">
         <v>92.483320978502505</v>
       </c>
       <c r="U12" s="15">
@@ -1474,8 +1468,8 @@
       </c>
     </row>
     <row r="13" spans="1:24">
-      <c r="A13" s="33"/>
-      <c r="B13" s="33"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="5" t="s">
         <v>4</v>
       </c>
@@ -1494,7 +1488,7 @@
       <c r="H13" s="18">
         <v>0</v>
       </c>
-      <c r="I13" s="41">
+      <c r="I13" s="36">
         <v>0</v>
       </c>
       <c r="J13" s="10">
@@ -1521,7 +1515,7 @@
       <c r="S13" s="10">
         <v>0</v>
       </c>
-      <c r="T13" s="41">
+      <c r="T13" s="36">
         <v>0</v>
       </c>
       <c r="U13" s="10">
@@ -1532,8 +1526,8 @@
       </c>
     </row>
     <row r="14" spans="1:24">
-      <c r="A14" s="34"/>
-      <c r="B14" s="34"/>
+      <c r="A14" s="49"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="6" t="s">
         <v>5</v>
       </c>
@@ -1552,7 +1546,7 @@
       <c r="H14" s="20">
         <v>0</v>
       </c>
-      <c r="I14" s="39">
+      <c r="I14" s="34">
         <v>0</v>
       </c>
       <c r="J14" s="13">
@@ -1579,7 +1573,7 @@
       <c r="S14" s="13">
         <v>0</v>
       </c>
-      <c r="T14" s="39">
+      <c r="T14" s="34">
         <v>0</v>
       </c>
       <c r="U14" s="20">
@@ -1590,10 +1584,10 @@
       </c>
     </row>
     <row r="15" spans="1:24">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="50" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -1614,7 +1608,7 @@
       <c r="H15" s="16">
         <v>98.136374639549103</v>
       </c>
-      <c r="I15" s="40">
+      <c r="I15" s="35">
         <v>97.877671333824594</v>
       </c>
       <c r="J15" s="9">
@@ -1641,7 +1635,7 @@
       <c r="S15" s="9">
         <v>98.125819134993407</v>
       </c>
-      <c r="T15" s="40">
+      <c r="T15" s="35">
         <v>97.924388435878399</v>
       </c>
       <c r="U15" s="15">
@@ -1652,8 +1646,8 @@
       </c>
     </row>
     <row r="16" spans="1:24">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="48"/>
       <c r="C16" s="5" t="s">
         <v>4</v>
       </c>
@@ -1672,7 +1666,7 @@
       <c r="H16" s="29">
         <v>68.311688309999994</v>
       </c>
-      <c r="I16" s="41">
+      <c r="I16" s="36">
         <v>61.052631580000003</v>
       </c>
       <c r="J16" s="10">
@@ -1699,7 +1693,7 @@
       <c r="S16" s="10">
         <v>50.166666669999998</v>
       </c>
-      <c r="T16" s="41">
+      <c r="T16" s="36">
         <v>45.333333330000002</v>
       </c>
       <c r="U16" s="10">
@@ -1710,8 +1704,8 @@
       </c>
     </row>
     <row r="17" spans="1:24">
-      <c r="A17" s="33"/>
-      <c r="B17" s="34"/>
+      <c r="A17" s="48"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="6" t="s">
         <v>5</v>
       </c>
@@ -1730,7 +1724,7 @@
       <c r="H17" s="20">
         <v>27.526315790000002</v>
       </c>
-      <c r="I17" s="39">
+      <c r="I17" s="34">
         <v>23.333333329999999</v>
       </c>
       <c r="J17" s="13">
@@ -1757,7 +1751,7 @@
       <c r="S17" s="13">
         <v>27.368421049999998</v>
       </c>
-      <c r="T17" s="39">
+      <c r="T17" s="34">
         <v>25.555555559999998</v>
       </c>
       <c r="U17" s="20">
@@ -1768,8 +1762,8 @@
       </c>
     </row>
     <row r="18" spans="1:24">
-      <c r="A18" s="33"/>
-      <c r="B18" s="35" t="s">
+      <c r="A18" s="48"/>
+      <c r="B18" s="50" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -1790,7 +1784,7 @@
       <c r="H18" s="15">
         <v>98.136366145861999</v>
       </c>
-      <c r="I18" s="40">
+      <c r="I18" s="35">
         <v>98.216654384671997</v>
       </c>
       <c r="J18" s="9">
@@ -1817,7 +1811,7 @@
       <c r="S18" s="9">
         <v>98.217562254259406</v>
       </c>
-      <c r="T18" s="40">
+      <c r="T18" s="35">
         <v>98.369162342475903</v>
       </c>
       <c r="U18" s="15">
@@ -1828,8 +1822,8 @@
       </c>
     </row>
     <row r="19" spans="1:24">
-      <c r="A19" s="33"/>
-      <c r="B19" s="33"/>
+      <c r="A19" s="48"/>
+      <c r="B19" s="48"/>
       <c r="C19" s="5" t="s">
         <v>4</v>
       </c>
@@ -1875,7 +1869,7 @@
       <c r="S19" s="10">
         <v>27.75</v>
       </c>
-      <c r="T19" s="41">
+      <c r="T19" s="36">
         <v>38.095238100000003</v>
       </c>
       <c r="U19" s="18">
@@ -1886,8 +1880,8 @@
       </c>
     </row>
     <row r="20" spans="1:24">
-      <c r="A20" s="34"/>
-      <c r="B20" s="34"/>
+      <c r="A20" s="49"/>
+      <c r="B20" s="49"/>
       <c r="C20" s="6" t="s">
         <v>5</v>
       </c>
@@ -1906,7 +1900,7 @@
       <c r="H20" s="20">
         <v>35.78947368</v>
       </c>
-      <c r="I20" s="39">
+      <c r="I20" s="34">
         <v>34.444444439999998</v>
       </c>
       <c r="J20" s="13">
@@ -1933,7 +1927,7 @@
       <c r="S20" s="13">
         <v>32.631578949999998</v>
       </c>
-      <c r="T20" s="39">
+      <c r="T20" s="34">
         <v>36.666666669999998</v>
       </c>
       <c r="U20" s="13">
@@ -1944,10 +1938,10 @@
       </c>
     </row>
     <row r="21" spans="1:24">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="48" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -1968,10 +1962,10 @@
       <c r="H21" s="18">
         <v>86.289558285804006</v>
       </c>
-      <c r="I21" s="41">
+      <c r="I21" s="36">
         <v>87.442888725128896</v>
       </c>
-      <c r="J21" s="41">
+      <c r="J21" s="36">
         <v>89.922562428994596</v>
       </c>
       <c r="K21" s="18">
@@ -1995,7 +1989,7 @@
       <c r="S21" s="18">
         <v>86.605504587155906</v>
       </c>
-      <c r="T21" s="41">
+      <c r="T21" s="36">
         <v>88.1541882876204</v>
       </c>
       <c r="U21" s="15">
@@ -2006,8 +2000,8 @@
       </c>
     </row>
     <row r="22" spans="1:24">
-      <c r="A22" s="33"/>
-      <c r="B22" s="33"/>
+      <c r="A22" s="48"/>
+      <c r="B22" s="48"/>
       <c r="C22" s="5" t="s">
         <v>4</v>
       </c>
@@ -2026,7 +2020,7 @@
       <c r="H22" s="18">
         <v>37.18614719</v>
       </c>
-      <c r="I22" s="41">
+      <c r="I22" s="36">
         <v>37.736842109999998</v>
       </c>
       <c r="J22" s="18">
@@ -2053,7 +2047,7 @@
       <c r="S22" s="18">
         <v>34.333333330000002</v>
       </c>
-      <c r="T22" s="41">
+      <c r="T22" s="36">
         <v>42.571428570000002</v>
       </c>
       <c r="U22" s="18">
@@ -2064,8 +2058,8 @@
       </c>
     </row>
     <row r="23" spans="1:24">
-      <c r="A23" s="33"/>
-      <c r="B23" s="34"/>
+      <c r="A23" s="48"/>
+      <c r="B23" s="49"/>
       <c r="C23" s="6" t="s">
         <v>5</v>
       </c>
@@ -2084,7 +2078,7 @@
       <c r="H23" s="20">
         <v>27.526315790000002</v>
       </c>
-      <c r="I23" s="39">
+      <c r="I23" s="34">
         <v>25.555555559999998</v>
       </c>
       <c r="J23" s="30">
@@ -2111,7 +2105,7 @@
       <c r="S23" s="20">
         <v>34.736842109999998</v>
       </c>
-      <c r="T23" s="39">
+      <c r="T23" s="34">
         <v>24.444444440000002</v>
       </c>
       <c r="U23" s="20">
@@ -2122,8 +2116,8 @@
       </c>
     </row>
     <row r="24" spans="1:24">
-      <c r="A24" s="33"/>
-      <c r="B24" s="35" t="s">
+      <c r="A24" s="48"/>
+      <c r="B24" s="50" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -2144,18 +2138,18 @@
       <c r="H24" s="15">
         <v>86.289566779491096</v>
       </c>
-      <c r="I24" s="40">
+      <c r="I24" s="35">
         <v>86.617538688282906</v>
       </c>
       <c r="J24" s="15">
         <v>87.963205319551804</v>
       </c>
-      <c r="K24" s="40">
+      <c r="K24" s="35">
         <v>88.105355193691395</v>
       </c>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
       <c r="O24" s="14">
         <v>87.840338767134895</v>
       </c>
@@ -2171,7 +2165,7 @@
       <c r="S24" s="15">
         <v>87.234600262123195</v>
       </c>
-      <c r="T24" s="40">
+      <c r="T24" s="35">
         <v>88.169014084506998</v>
       </c>
       <c r="U24" s="16">
@@ -2182,8 +2176,8 @@
       </c>
     </row>
     <row r="25" spans="1:24">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
+      <c r="A25" s="48"/>
+      <c r="B25" s="48"/>
       <c r="C25" s="5" t="s">
         <v>4</v>
       </c>
@@ -2202,7 +2196,7 @@
       <c r="H25" s="18">
         <v>41.94805195</v>
       </c>
-      <c r="I25" s="41">
+      <c r="I25" s="36">
         <v>45.052631580000003</v>
       </c>
       <c r="J25" s="18">
@@ -2229,7 +2223,7 @@
       <c r="S25" s="18">
         <v>43.75</v>
       </c>
-      <c r="T25" s="41">
+      <c r="T25" s="36">
         <v>53.52380952</v>
       </c>
       <c r="U25" s="18">
@@ -2240,8 +2234,8 @@
       </c>
     </row>
     <row r="26" spans="1:24">
-      <c r="A26" s="34"/>
-      <c r="B26" s="34"/>
+      <c r="A26" s="49"/>
+      <c r="B26" s="49"/>
       <c r="C26" s="6" t="s">
         <v>5</v>
       </c>
@@ -2260,7 +2254,7 @@
       <c r="H26" s="20">
         <v>30.631578950000002</v>
       </c>
-      <c r="I26" s="39">
+      <c r="I26" s="34">
         <v>24.444444440000002</v>
       </c>
       <c r="J26" s="20">
@@ -2287,7 +2281,7 @@
       <c r="S26" s="20">
         <v>33.684210530000001</v>
       </c>
-      <c r="T26" s="39">
+      <c r="T26" s="34">
         <v>41.111111110000003</v>
       </c>
       <c r="U26" s="20">
@@ -2298,10 +2292,10 @@
       </c>
     </row>
     <row r="27" spans="1:24">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="48" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -2310,19 +2304,19 @@
       <c r="D27" s="22">
         <v>99.341169062645406</v>
       </c>
-      <c r="E27" s="45">
+      <c r="E27" s="40">
         <v>99.112004233385903</v>
       </c>
-      <c r="F27" s="45">
+      <c r="F27" s="40">
         <v>99.212249745155901</v>
       </c>
       <c r="G27" s="23">
         <v>99.384149005338898</v>
       </c>
-      <c r="H27" s="45">
+      <c r="H27" s="40">
         <v>99.322348164726506</v>
       </c>
-      <c r="I27" s="45">
+      <c r="I27" s="40">
         <v>99.233603537214407</v>
       </c>
       <c r="J27" s="23">
@@ -2331,13 +2325,13 @@
       <c r="K27" s="23">
         <v>99.386458310128901</v>
       </c>
-      <c r="L27" s="48">
+      <c r="L27" s="43">
         <v>99.221280434831002</v>
       </c>
-      <c r="M27" s="48">
+      <c r="M27" s="43">
         <v>99.295497174674693</v>
       </c>
-      <c r="N27" s="48">
+      <c r="N27" s="43">
         <v>99.339232808358005</v>
       </c>
       <c r="O27" s="22">
@@ -2346,7 +2340,7 @@
       <c r="P27" s="23">
         <v>99.366149843459198</v>
       </c>
-      <c r="Q27" s="45">
+      <c r="Q27" s="40">
         <v>99.236466846341003</v>
       </c>
       <c r="R27" s="23">
@@ -2355,13 +2349,13 @@
       <c r="S27" s="23">
         <v>99.397116644823001</v>
       </c>
-      <c r="T27" s="45">
+      <c r="T27" s="40">
         <v>99.3328391401038</v>
       </c>
-      <c r="U27" s="43">
+      <c r="U27" s="38">
         <v>99.4056956287193</v>
       </c>
-      <c r="V27" s="43">
+      <c r="V27" s="38">
         <v>99.381914415877404</v>
       </c>
       <c r="W27" s="24">
@@ -2372,97 +2366,97 @@
       </c>
     </row>
     <row r="28" spans="1:24">
-      <c r="A28" s="33"/>
-      <c r="B28" s="33"/>
+      <c r="A28" s="48"/>
+      <c r="B28" s="48"/>
       <c r="C28" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D28" s="28">
         <v>83.631578950000005</v>
       </c>
-      <c r="E28" s="46">
+      <c r="E28" s="41">
         <v>81.631578950000005</v>
       </c>
-      <c r="F28" s="46">
+      <c r="F28" s="41">
         <v>80.526315789999998</v>
       </c>
-      <c r="G28" s="46">
+      <c r="G28" s="41">
         <v>83.578947369999995</v>
       </c>
-      <c r="H28" s="45">
+      <c r="H28" s="40">
         <v>83.29004329</v>
       </c>
       <c r="I28" s="29">
         <v>84.631578950000005</v>
       </c>
-      <c r="J28" s="46">
+      <c r="J28" s="41">
         <v>81.282051280000005</v>
       </c>
-      <c r="K28" s="41">
+      <c r="K28" s="36">
         <v>84.358974360000005</v>
       </c>
-      <c r="L28" s="48">
+      <c r="L28" s="43">
         <v>81.41</v>
       </c>
-      <c r="M28" s="48">
+      <c r="M28" s="43">
         <v>84.358974360000005</v>
       </c>
-      <c r="N28" s="48">
+      <c r="N28" s="43">
         <v>79.871794870000002</v>
       </c>
-      <c r="O28" s="47">
+      <c r="O28" s="42">
         <v>76.190476189999998</v>
       </c>
-      <c r="P28" s="45">
+      <c r="P28" s="40">
         <v>76.380952379999997</v>
       </c>
-      <c r="Q28" s="46">
+      <c r="Q28" s="41">
         <v>72.095238100000003</v>
       </c>
-      <c r="R28" s="46">
+      <c r="R28" s="41">
         <v>76.095238100000003</v>
       </c>
-      <c r="S28" s="46">
+      <c r="S28" s="41">
         <v>73.833333330000002</v>
       </c>
-      <c r="T28" s="48">
+      <c r="T28" s="43">
         <v>76.285714290000001</v>
       </c>
-      <c r="U28" s="46">
+      <c r="U28" s="41">
         <v>75.555555560000002</v>
       </c>
-      <c r="V28" s="46">
+      <c r="V28" s="41">
         <v>71.111111109999996</v>
       </c>
-      <c r="W28" s="46">
+      <c r="W28" s="41">
         <v>71.333333330000002</v>
       </c>
-      <c r="X28" s="46">
+      <c r="X28" s="41">
         <v>69.238095240000007</v>
       </c>
     </row>
     <row r="29" spans="1:24">
-      <c r="A29" s="33"/>
-      <c r="B29" s="34"/>
+      <c r="A29" s="48"/>
+      <c r="B29" s="49"/>
       <c r="C29" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D29" s="19">
         <v>86.666666669999998</v>
       </c>
-      <c r="E29" s="49">
+      <c r="E29" s="44">
         <v>82.222222220000006</v>
       </c>
       <c r="F29" s="13">
         <v>88.888888890000004</v>
       </c>
-      <c r="G29" s="49">
+      <c r="G29" s="44">
         <v>83.333333330000002</v>
       </c>
-      <c r="H29" s="49">
+      <c r="H29" s="44">
         <v>84.842105259999997</v>
       </c>
-      <c r="I29" s="50">
+      <c r="I29" s="45">
         <v>83.333333330000002</v>
       </c>
       <c r="J29" s="26">
@@ -2471,13 +2465,13 @@
       <c r="K29" s="27">
         <v>93.030303029999999</v>
       </c>
-      <c r="L29" s="50">
+      <c r="L29" s="45">
         <v>86.060606059999998</v>
       </c>
-      <c r="M29" s="50">
+      <c r="M29" s="45">
         <v>86.212121210000006</v>
       </c>
-      <c r="N29" s="50">
+      <c r="N29" s="45">
         <v>93.030303029999999</v>
       </c>
       <c r="O29" s="19">
@@ -2492,28 +2486,28 @@
       <c r="R29" s="20">
         <v>87.777777779999994</v>
       </c>
-      <c r="S29" s="49">
+      <c r="S29" s="44">
         <v>84.21052632</v>
       </c>
-      <c r="T29" s="50">
+      <c r="T29" s="45">
         <v>85.555555560000002</v>
       </c>
-      <c r="U29" s="49">
+      <c r="U29" s="44">
         <v>84.090909089999997</v>
       </c>
-      <c r="V29" s="49">
+      <c r="V29" s="44">
         <v>85.757575759999995</v>
       </c>
       <c r="W29" s="24">
         <v>93.030303029999999</v>
       </c>
-      <c r="X29" s="46">
+      <c r="X29" s="41">
         <v>82.222222220000006</v>
       </c>
     </row>
     <row r="30" spans="1:24">
-      <c r="A30" s="33"/>
-      <c r="B30" s="33" t="s">
+      <c r="A30" s="48"/>
+      <c r="B30" s="48" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="5" t="s">
@@ -2534,7 +2528,7 @@
       <c r="H30" s="18">
         <v>97.471718145488296</v>
       </c>
-      <c r="I30" s="41">
+      <c r="I30" s="36">
         <v>97.435519528371401</v>
       </c>
       <c r="J30" s="18">
@@ -2561,7 +2555,7 @@
       <c r="S30" s="18">
         <v>97.680209698558301</v>
       </c>
-      <c r="T30" s="41">
+      <c r="T30" s="36">
         <v>97.850259451445496</v>
       </c>
       <c r="U30" s="15">
@@ -2572,8 +2566,8 @@
       </c>
     </row>
     <row r="31" spans="1:24">
-      <c r="A31" s="33"/>
-      <c r="B31" s="33"/>
+      <c r="A31" s="48"/>
+      <c r="B31" s="48"/>
       <c r="C31" s="5" t="s">
         <v>4</v>
       </c>
@@ -2592,7 +2586,7 @@
       <c r="H31" s="18">
         <v>16.883116879999999</v>
       </c>
-      <c r="I31" s="41">
+      <c r="I31" s="36">
         <v>22.473684209999998</v>
       </c>
       <c r="J31" s="18">
@@ -2619,7 +2613,7 @@
       <c r="S31" s="18">
         <v>7.8333333300000003</v>
       </c>
-      <c r="T31" s="41">
+      <c r="T31" s="36">
         <v>18.190476189999998</v>
       </c>
       <c r="U31" s="18">
@@ -2630,8 +2624,8 @@
       </c>
     </row>
     <row r="32" spans="1:24">
-      <c r="A32" s="34"/>
-      <c r="B32" s="34"/>
+      <c r="A32" s="49"/>
+      <c r="B32" s="49"/>
       <c r="C32" s="6" t="s">
         <v>5</v>
       </c>
@@ -2650,7 +2644,7 @@
       <c r="H32" s="30">
         <v>21.631578950000002</v>
       </c>
-      <c r="I32" s="39">
+      <c r="I32" s="34">
         <v>16.666666670000001</v>
       </c>
       <c r="J32" s="20">
@@ -2705,12 +2699,6 @@
     <filterColumn colId="20" showButton="0"/>
   </autoFilter>
   <mergeCells count="17">
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B30:B32"/>
     <mergeCell ref="O1:V1"/>
     <mergeCell ref="D1:K1"/>
     <mergeCell ref="A15:A20"/>
@@ -2722,6 +2710,12 @@
     <mergeCell ref="A9:A14"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="B12:B14"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
